--- a/Bayes_Estimation_paper/need to check/Fig4_trials_10.xlsx
+++ b/Bayes_Estimation_paper/need to check/Fig4_trials_10.xlsx
@@ -381,58 +381,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="4.7265625" customWidth="true"/>
+    <col min="1" max="1" width="4.7109375" customWidth="true"/>
+    <col min="2" max="2" width="4.7109375" customWidth="true"/>
+    <col min="3" max="3" width="4.7109375" customWidth="true"/>
+    <col min="4" max="4" width="4.7109375" customWidth="true"/>
+    <col min="5" max="5" width="4.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>0.32</v>
-      </c>
-      <c r="B1">
-        <v>0.17</v>
-      </c>
-      <c r="C1">
-        <v>0.24</v>
-      </c>
-      <c r="D1">
-        <v>0.21</v>
-      </c>
-      <c r="E1">
-        <v>7.0000000000000007E-2</v>
+      <c r="A1" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="B1" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="C1" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="D1" s="0">
+        <v>0.13</v>
+      </c>
+      <c r="E1" s="0">
+        <v>0.32000000000000001</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.65</v>
-      </c>
-      <c r="B2">
-        <v>0.45</v>
-      </c>
-      <c r="C2">
-        <v>0.44</v>
-      </c>
-      <c r="D2">
-        <v>0.54</v>
-      </c>
-      <c r="E2">
-        <v>0.14000000000000001</v>
+      <c r="A2" s="0">
+        <v>0.60999999999999999</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.54000000000000004</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.45000000000000001</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.46999999999999997</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0.83</v>
-      </c>
-      <c r="B3">
-        <v>0.72</v>
-      </c>
-      <c r="C3">
-        <v>0.65</v>
-      </c>
-      <c r="D3">
-        <v>0.72</v>
-      </c>
-      <c r="E3">
-        <v>0.37</v>
+      <c r="A3" s="0">
+        <v>0.87</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.73999999999999999</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.77000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -449,58 +453,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="4.7265625" customWidth="true"/>
-    <col min="5" max="5" width="2.1796875" customWidth="true"/>
+    <col min="1" max="1" width="4.7109375" customWidth="true"/>
+    <col min="5" max="5" width="2.16796875" customWidth="true"/>
+    <col min="2" max="2" width="4.7109375" customWidth="true"/>
+    <col min="3" max="3" width="4.7109375" customWidth="true"/>
+    <col min="4" max="4" width="4.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>0.51</v>
-      </c>
-      <c r="B1">
-        <v>0.32</v>
-      </c>
-      <c r="C1">
-        <v>0.26</v>
-      </c>
-      <c r="D1">
-        <v>0.11</v>
-      </c>
-      <c r="E1">
+      <c r="A1" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B1" s="0">
+        <v>0.26000000000000001</v>
+      </c>
+      <c r="C1" s="0">
+        <v>0.23999999999999999</v>
+      </c>
+      <c r="D1" s="0">
+        <v>0.32000000000000001</v>
+      </c>
+      <c r="E1" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="B2">
-        <v>0.59</v>
-      </c>
-      <c r="C2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D2">
-        <v>0.75</v>
-      </c>
-      <c r="E2">
+      <c r="A2" s="0">
+        <v>0.60999999999999999</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.54000000000000004</v>
+      </c>
+      <c r="E2" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0.66</v>
-      </c>
-      <c r="B3">
-        <v>0.73</v>
-      </c>
-      <c r="C3">
-        <v>0.78</v>
-      </c>
-      <c r="D3">
-        <v>0.84</v>
-      </c>
-      <c r="E3">
+      <c r="A3" s="0">
+        <v>0.67000000000000004</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.68000000000000005</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.82999999999999996</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.83999999999999997</v>
+      </c>
+      <c r="E3" s="0">
         <v>1</v>
       </c>
     </row>
@@ -527,16 +534,16 @@
   <sheetData>
     <row r="1" x14ac:dyDescent="0.35">
       <c r="A1" s="0">
-        <v>0.89000000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="B1" s="0">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="C1" s="0">
         <v>0.94999999999999996</v>
       </c>
-      <c r="C1" s="0">
-        <v>0.93999999999999995</v>
-      </c>
       <c r="D1" s="0">
-        <v>0.92000000000000004</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="E1" s="0">
         <v>1</v>
@@ -544,16 +551,16 @@
     </row>
     <row r="2" x14ac:dyDescent="0.35">
       <c r="A2" s="0">
-        <v>0.93000000000000005</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="B2" s="0">
+        <v>0.94999999999999996</v>
+      </c>
+      <c r="C2" s="0">
         <v>0.97999999999999998</v>
       </c>
-      <c r="C2" s="0">
-        <v>0.95999999999999996</v>
-      </c>
       <c r="D2" s="0">
-        <v>0.95999999999999996</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="E2" s="0">
         <v>1</v>
@@ -570,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="0">
-        <v>0.98999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E3" s="0">
         <v>1</v>
@@ -590,58 +597,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="4.7265625" customWidth="true"/>
-    <col min="5" max="5" width="2.1796875" customWidth="true"/>
+    <col min="1" max="1" width="4.7109375" customWidth="true"/>
+    <col min="5" max="5" width="2.16796875" customWidth="true"/>
+    <col min="2" max="2" width="4.7109375" customWidth="true"/>
+    <col min="3" max="3" width="4.7109375" customWidth="true"/>
+    <col min="4" max="4" width="4.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>0.88</v>
-      </c>
-      <c r="B1">
-        <v>0.94</v>
-      </c>
-      <c r="C1">
-        <v>0.87</v>
-      </c>
-      <c r="D1">
-        <v>0.99</v>
-      </c>
-      <c r="E1">
+      <c r="A1" s="0">
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="B1" s="0">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="C1" s="0">
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="D1" s="0">
+        <v>0.97999999999999998</v>
+      </c>
+      <c r="E1" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.88</v>
-      </c>
-      <c r="B2">
-        <v>0.94</v>
-      </c>
-      <c r="C2">
-        <v>0.87</v>
-      </c>
-      <c r="D2">
-        <v>0.99</v>
-      </c>
-      <c r="E2">
+      <c r="A2" s="0">
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.97999999999999998</v>
+      </c>
+      <c r="E2" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0.88</v>
-      </c>
-      <c r="B3">
-        <v>0.94</v>
-      </c>
-      <c r="C3">
-        <v>0.87</v>
-      </c>
-      <c r="D3">
-        <v>0.99</v>
-      </c>
-      <c r="E3">
+      <c r="A3" s="0">
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.93999999999999995</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.97999999999999998</v>
+      </c>
+      <c r="E3" s="0">
         <v>1</v>
       </c>
     </row>
@@ -659,58 +669,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="4.7265625" customWidth="true"/>
+    <col min="1" max="1" width="4.7109375" customWidth="true"/>
+    <col min="2" max="2" width="4.7109375" customWidth="true"/>
+    <col min="3" max="3" width="4.7109375" customWidth="true"/>
+    <col min="4" max="4" width="4.7109375" customWidth="true"/>
+    <col min="5" max="5" width="2.16796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>0.03</v>
-      </c>
-      <c r="B1">
-        <v>0.02</v>
-      </c>
-      <c r="C1">
-        <v>0.01</v>
-      </c>
-      <c r="D1">
-        <v>0.02</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
+      <c r="A1" s="0">
+        <v>0.68999999999999995</v>
+      </c>
+      <c r="B1" s="0">
+        <v>0.69999999999999996</v>
+      </c>
+      <c r="C1" s="0">
+        <v>0.58999999999999997</v>
+      </c>
+      <c r="D1" s="0">
+        <v>0.58999999999999997</v>
+      </c>
+      <c r="E1" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0.41</v>
-      </c>
-      <c r="B2">
-        <v>0.44</v>
-      </c>
-      <c r="C2">
-        <v>0.32</v>
-      </c>
-      <c r="D2">
-        <v>0.38</v>
-      </c>
-      <c r="E2">
-        <v>7.0000000000000007E-2</v>
+      <c r="A2" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.71999999999999997</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.63</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.68000000000000005</v>
+      </c>
+      <c r="E2" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0.84</v>
-      </c>
-      <c r="B3">
-        <v>0.82</v>
-      </c>
-      <c r="C3">
-        <v>0.84</v>
-      </c>
-      <c r="D3">
-        <v>0.85</v>
-      </c>
-      <c r="E3">
-        <v>0.91</v>
+      <c r="A3" s="0">
+        <v>0.93000000000000005</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.89000000000000001</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.83999999999999997</v>
+      </c>
+      <c r="E3" s="0">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
